--- a/src/test/resources/TestData/EmiData.xlsx
+++ b/src/test/resources/TestData/EmiData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
   <si>
     <t>Amount</t>
   </si>

--- a/src/test/resources/TestData/EmiData.xlsx
+++ b/src/test/resources/TestData/EmiData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
   <si>
     <t>Amount</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>TotalPay</t>
+  </si>
+  <si>
+    <t>31,213</t>
+  </si>
+  <si>
+    <t>2,520</t>
+  </si>
+  <si>
+    <t>38,493</t>
+  </si>
+  <si>
+    <t>61,541</t>
+  </si>
+  <si>
+    <t>7,38,493</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/TestData/EmiData.xlsx
+++ b/src/test/resources/TestData/EmiData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="24">
   <si>
     <t>Amount</t>
   </si>

--- a/src/test/resources/TestData/EmiData.xlsx
+++ b/src/test/resources/TestData/EmiData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="24">
   <si>
     <t>Amount</t>
   </si>

--- a/src/test/resources/TestData/EmiData.xlsx
+++ b/src/test/resources/TestData/EmiData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="30">
   <si>
     <t>Amount</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>7,38,493</t>
+  </si>
+  <si>
+    <t>92,397</t>
+  </si>
+  <si>
+    <t>8,207</t>
+  </si>
+  <si>
+    <t>4,92,397</t>
+  </si>
+  <si>
+    <t>27,719</t>
+  </si>
+  <si>
+    <t>2,462</t>
+  </si>
+  <si>
+    <t>1,47,719</t>
   </si>
 </sst>
 </file>
@@ -619,46 +637,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/EmiData.xlsx
+++ b/src/test/resources/TestData/EmiData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="24">
   <si>
     <t>Amount</t>
   </si>

--- a/src/test/resources/TestData/EmiData.xlsx
+++ b/src/test/resources/TestData/EmiData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="24">
   <si>
     <t>Amount</t>
   </si>
